--- a/src/Template/Report_Individual.xlsx
+++ b/src/Template/Report_Individual.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>PT. ALTAFLIX TECHNO GLOBAL</t>
   </si>
@@ -125,13 +125,13 @@
     <t>Data Penilaian</t>
   </si>
   <si>
-    <t>: 127839201</t>
-  </si>
-  <si>
-    <t>: PK-19</t>
-  </si>
-  <si>
-    <t>: Ari</t>
+    <t>: 77665533772</t>
+  </si>
+  <si>
+    <t>: PK-21</t>
+  </si>
+  <si>
+    <t>: Kevin Lusianto</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -155,12 +155,15 @@
     <t>Tempat, Tanggal Lahir</t>
   </si>
   <si>
-    <t>: Samarinda, 10 Januari 1995</t>
+    <t>: Pontianak, 30-12-1995</t>
   </si>
   <si>
     <t>kemmapuan Teknis</t>
   </si>
   <si>
+    <t>=    60</t>
+  </si>
+  <si>
     <t>Status Karyawan</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>Kedisiplinan</t>
   </si>
   <si>
+    <t>=    75</t>
+  </si>
+  <si>
     <t>: Software Engineer</t>
   </si>
   <si>
@@ -194,7 +200,7 @@
     <t>Hasil Akhir</t>
   </si>
   <si>
-    <t>=    0.645334</t>
+    <t>=    0.446398</t>
   </si>
   <si>
     <t>Jakarta, 11 Agustus 2023</t>
@@ -1044,25 +1050,25 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="D13" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9"/>
     </row>
@@ -1073,10 +1079,10 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" t="s">
@@ -1087,36 +1093,36 @@
     <row r="15" ht="16" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="D15" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="9"/>
     </row>
@@ -1131,7 +1137,7 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="H19" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
